--- a/biology/Médecine/Test_de_Wright/Test_de_Wright.xlsx
+++ b/biology/Médecine/Test_de_Wright/Test_de_Wright.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le test, séro-diagnostic ou réaction de Wright,  du nom de Almroth Wright (1861-1947) sert à dépister et suivre la brucellose. Il s'agit d'une réaction de séro-agglutination qui identifie les anticorps de type IgM. 
 Le test consiste à titrer les anticorps en effectuant une série de dilutions 1/20, 1/40, etc. Ne sont considérés comme positifs que les taux supérieurs ou égaux au 1/80. La réaction se positive dès le 12e ou 15e jour de la maladie, passe par un pic et décroit vers des valeurs non significatives vers le 5e ou 6e mois.
-Il peut être faussement positif par réaction croisée, notamment avec Yersinia enterocolitica (le test ne fait pas la différence). Il peut être faussement négatif ou d'interprétation délicate à distance d'un épisode aigu[1].
-Autres choses sont la manœuvre et le syndrome de Wright, du nom de Irving Sherwood Wright (de) (1901-1997). La manœuvre consiste à évaluer une éventuelle étroitesse du défilé thoraco-brachial par abduction à 180° et rotation externe du bras pour constater l'abolition du pouls radial et l'apparition d'un souffle sus-claviculaire. Ce qui indiquerait alors un syndrome du défilé thoraco-brachial. Cette manœuvre (comme d'autres analogues) est de valeur discutée, car souvent positive chez des sujets normaux[2].
-Le syndrome de Wright, appelé aussi syndrome du petit pectoral, est un cas particulier de syndrome du défilé, où l'artère sous-clavière est comprimée par le muscle petit pectoral en tension. Il réalise un ensemble de troubles neurovasculaires lors d'une abduction forcée prolongée du bras[3]. 
+Il peut être faussement positif par réaction croisée, notamment avec Yersinia enterocolitica (le test ne fait pas la différence). Il peut être faussement négatif ou d'interprétation délicate à distance d'un épisode aigu.
+Autres choses sont la manœuvre et le syndrome de Wright, du nom de Irving Sherwood Wright (de) (1901-1997). La manœuvre consiste à évaluer une éventuelle étroitesse du défilé thoraco-brachial par abduction à 180° et rotation externe du bras pour constater l'abolition du pouls radial et l'apparition d'un souffle sus-claviculaire. Ce qui indiquerait alors un syndrome du défilé thoraco-brachial. Cette manœuvre (comme d'autres analogues) est de valeur discutée, car souvent positive chez des sujets normaux.
+Le syndrome de Wright, appelé aussi syndrome du petit pectoral, est un cas particulier de syndrome du défilé, où l'artère sous-clavière est comprimée par le muscle petit pectoral en tension. Il réalise un ensemble de troubles neurovasculaires lors d'une abduction forcée prolongée du bras. 
 </t>
         </is>
       </c>
